--- a/Relevamiento Alumnos 2018.xlsx
+++ b/Relevamiento Alumnos 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel-San\Documents\GitHub\Proba-Final-Mermoz-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03409773-51D7-4CFE-A3EA-35DB5E199DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DE4B00-A97A-459E-8962-2674DBDF2C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="117">
   <si>
     <t>Edad</t>
   </si>
@@ -350,13 +350,52 @@
   </si>
   <si>
     <t>¿Cómo te trasladas habitualmente al INSPT?</t>
+  </si>
+  <si>
+    <t>Alcance</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>rango</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Ii</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>Fi</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>Hi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -384,6 +423,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -405,11 +451,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -427,6 +472,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -649,24 +703,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16:E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="8" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="33.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="27.5703125" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" style="8" customWidth="1"/>
     <col min="14" max="14" width="40.28515625" customWidth="1"/>
     <col min="15" max="15" width="40.140625" customWidth="1"/>
     <col min="16" max="16" width="41.42578125" bestFit="1" customWidth="1"/>
@@ -676,65 +730,65 @@
     <col min="20" max="20" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="6" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:20" s="5" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -742,25 +796,25 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>26</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>1.71</v>
       </c>
-      <c r="E2" s="10">
-        <v>7.81</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>2010</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -769,13 +823,13 @@
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -804,17 +858,17 @@
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>28</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>1.7</v>
       </c>
-      <c r="E3" s="10">
-        <v>6.65</v>
+      <c r="E3" s="9">
+        <v>9.1999999999999993</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>22</v>
@@ -822,7 +876,7 @@
       <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>2009</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -831,13 +885,13 @@
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="K3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -849,7 +903,7 @@
       <c r="P3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -866,16 +920,16 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>39</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>1.51</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>7.63</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -884,7 +938,7 @@
       <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>1997</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -893,13 +947,13 @@
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="8" t="s">
+      <c r="K4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -908,7 +962,7 @@
       <c r="O4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -928,16 +982,16 @@
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>36</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>1.51</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>8.41</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -946,7 +1000,7 @@
       <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>1996</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -955,13 +1009,13 @@
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="8" t="s">
+      <c r="K5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -970,7 +1024,7 @@
       <c r="O5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -990,16 +1044,16 @@
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>23</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>1.53</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>9.5299999999999994</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1008,7 +1062,7 @@
       <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>2011</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1017,13 +1071,13 @@
       <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="8" t="s">
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -1032,7 +1086,7 @@
       <c r="O6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -1052,16 +1106,16 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>28</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>1.78</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>8.06</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1070,7 +1124,7 @@
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>2010</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1079,13 +1133,13 @@
       <c r="J7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="8" t="s">
+      <c r="K7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -1094,7 +1148,7 @@
       <c r="O7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q7" s="1" t="s">
@@ -1114,16 +1168,16 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>24</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>1.53</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>8.01</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1132,7 +1186,7 @@
       <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>2009</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1141,13 +1195,13 @@
       <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="8" t="s">
+      <c r="K8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -1156,7 +1210,7 @@
       <c r="O8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -1176,25 +1230,25 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>33</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>1.53</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>6.14</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>2002</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1203,13 +1257,13 @@
       <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="8" t="s">
+      <c r="K9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -1218,7 +1272,7 @@
       <c r="O9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q9" s="1" t="s">
@@ -1238,16 +1292,16 @@
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>37</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>1.53</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>8.24</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1256,7 +1310,7 @@
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>2001</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1265,13 +1319,13 @@
       <c r="J10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="8" t="s">
+      <c r="K10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -1280,10 +1334,10 @@
       <c r="O10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R10" s="1" t="s">
@@ -1300,16 +1354,16 @@
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>27</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>1.77</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>7.42</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1318,7 +1372,7 @@
       <c r="G11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>2003</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1327,13 +1381,13 @@
       <c r="J11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="8" t="s">
+      <c r="K11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -1362,17 +1416,17 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>1.55</v>
       </c>
-      <c r="E12" s="10">
-        <v>7.56</v>
+      <c r="E12" s="9">
+        <v>9.1999999999999993</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -1380,7 +1434,7 @@
       <c r="G12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>2006</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1389,13 +1443,13 @@
       <c r="J12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="8" t="s">
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -1404,10 +1458,10 @@
       <c r="O12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -1424,16 +1478,16 @@
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>33</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>1.77</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>7.49</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1442,7 +1496,7 @@
       <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>2001</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1451,13 +1505,13 @@
       <c r="J13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="K13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -1466,10 +1520,10 @@
       <c r="O13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -1482,21 +1536,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>23</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>1.64</v>
       </c>
-      <c r="E14" s="10">
-        <v>6.93</v>
+      <c r="E14" s="9">
+        <v>9.1999999999999993</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>22</v>
@@ -1504,7 +1558,7 @@
       <c r="G14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>2013</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1513,13 +1567,13 @@
       <c r="J14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="8" t="s">
+      <c r="K14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -1528,7 +1582,7 @@
       <c r="O14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q14" s="1" t="s">
@@ -1544,21 +1598,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="8">
-        <v>30</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="7">
+        <v>30</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>1.77</v>
       </c>
-      <c r="E15" s="10">
-        <v>9.4</v>
+      <c r="E15" s="9">
+        <v>7.6</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
@@ -1566,7 +1620,7 @@
       <c r="G15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>1996</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -1575,13 +1629,13 @@
       <c r="J15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="8" t="s">
+      <c r="K15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -1590,7 +1644,7 @@
       <c r="O15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q15" s="1" t="s">
@@ -1606,21 +1660,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>36</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>1.77</v>
       </c>
-      <c r="E16" s="10">
-        <v>9.9499999999999993</v>
+      <c r="E16" s="9">
+        <v>7.6</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>22</v>
@@ -1628,7 +1682,7 @@
       <c r="G16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>2002</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1637,13 +1691,13 @@
       <c r="J16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="8" t="s">
+      <c r="K16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -1652,7 +1706,7 @@
       <c r="O16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q16" s="1" t="s">
@@ -1672,16 +1726,16 @@
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>29</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>1.55</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>7.36</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1690,7 +1744,7 @@
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>2009</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -1699,13 +1753,13 @@
       <c r="J17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="8" t="s">
+      <c r="K17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N17" s="1" t="s">
@@ -1714,7 +1768,7 @@
       <c r="O17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q17" s="1" t="s">
@@ -1734,16 +1788,16 @@
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>20</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>1.55</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>6.1</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1752,7 +1806,7 @@
       <c r="G18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>2016</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -1761,13 +1815,13 @@
       <c r="J18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="8" t="s">
+      <c r="K18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -1776,7 +1830,7 @@
       <c r="O18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q18" s="1" t="s">
@@ -1792,21 +1846,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>31</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>1.55</v>
       </c>
-      <c r="E19" s="10">
-        <v>9.6300000000000008</v>
+      <c r="E19" s="9">
+        <v>7.6</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>22</v>
@@ -1814,7 +1868,7 @@
       <c r="G19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>2009</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -1823,13 +1877,13 @@
       <c r="J19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="8" t="s">
+      <c r="K19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N19" s="1" t="s">
@@ -1838,7 +1892,7 @@
       <c r="O19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="P19" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q19" s="1" t="s">
@@ -1858,16 +1912,16 @@
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>32</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>1.55</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>7.07</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1876,7 +1930,7 @@
       <c r="G20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>2003</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1885,13 +1939,13 @@
       <c r="J20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="8" t="s">
+      <c r="K20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -1900,7 +1954,7 @@
       <c r="O20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q20" s="1" t="s">
@@ -1920,16 +1974,16 @@
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>24</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>1.56</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>7.56</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1938,7 +1992,7 @@
       <c r="G21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <v>2001</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -1947,13 +2001,13 @@
       <c r="J21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="8" t="s">
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -1962,7 +2016,7 @@
       <c r="O21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q21" s="1" t="s">
@@ -1982,16 +2036,16 @@
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>22</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>1.65</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>9.6300000000000008</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -2000,7 +2054,7 @@
       <c r="G22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <v>2017</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -2009,13 +2063,13 @@
       <c r="J22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M22" s="8" t="s">
+      <c r="K22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N22" s="1" t="s">
@@ -2024,10 +2078,10 @@
       <c r="O22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="3" t="s">
         <v>94</v>
       </c>
       <c r="R22" s="1" t="s">
@@ -2044,25 +2098,25 @@
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>25</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>1.56</v>
       </c>
-      <c r="E23" s="10">
-        <v>9.01</v>
+      <c r="E23" s="9">
+        <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <v>2013</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -2071,13 +2125,13 @@
       <c r="J23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" s="8" t="s">
+      <c r="K23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -2089,7 +2143,7 @@
       <c r="P23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R23" s="1" t="s">
@@ -2106,16 +2160,16 @@
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>19</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>1.54</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>8.94</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -2124,7 +2178,7 @@
       <c r="G24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <v>2012</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -2133,13 +2187,13 @@
       <c r="J24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="8" t="s">
+      <c r="K24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -2148,7 +2202,7 @@
       <c r="O24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="P24" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q24" s="1" t="s">
@@ -2168,16 +2222,16 @@
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>23</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>1.57</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>8.6</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2186,7 +2240,7 @@
       <c r="G25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <v>2016</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -2195,13 +2249,13 @@
       <c r="J25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M25" s="8" t="s">
+      <c r="K25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N25" s="1" t="s">
@@ -2210,7 +2264,7 @@
       <c r="O25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="P25" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q25" s="1" t="s">
@@ -2230,17 +2284,17 @@
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>24</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>1.57</v>
       </c>
-      <c r="E26" s="10">
-        <v>9.56</v>
+      <c r="E26" s="9">
+        <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
@@ -2248,7 +2302,7 @@
       <c r="G26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <v>2006</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -2257,13 +2311,13 @@
       <c r="J26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M26" s="8" t="s">
+      <c r="K26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N26" s="1" t="s">
@@ -2272,10 +2326,10 @@
       <c r="O26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="P26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="Q26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R26" s="1" t="s">
@@ -2288,21 +2342,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="8">
-        <v>21</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="7">
+        <v>21</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>1.57</v>
       </c>
-      <c r="E27" s="10">
-        <v>9.34</v>
+      <c r="E27" s="9">
+        <v>7.6</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>13</v>
@@ -2310,7 +2364,7 @@
       <c r="G27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <v>2014</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -2319,13 +2373,13 @@
       <c r="J27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M27" s="8" t="s">
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -2334,7 +2388,7 @@
       <c r="O27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="P27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q27" s="1" t="s">
@@ -2354,16 +2408,16 @@
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>19</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>1.59</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <v>6.79</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -2372,7 +2426,7 @@
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <v>2016</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -2381,13 +2435,13 @@
       <c r="J28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M28" s="8" t="s">
+      <c r="K28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -2396,10 +2450,10 @@
       <c r="O28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="P28" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="Q28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R28" s="1" t="s">
@@ -2416,17 +2470,17 @@
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>29</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>1.61</v>
       </c>
-      <c r="E29" s="10">
-        <v>9.7899999999999991</v>
+      <c r="E29" s="12">
+        <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>22</v>
@@ -2434,7 +2488,7 @@
       <c r="G29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="7">
         <v>2011</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -2443,13 +2497,13 @@
       <c r="J29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M29" s="8" t="s">
+      <c r="K29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N29" s="1" t="s">
@@ -2458,10 +2512,10 @@
       <c r="O29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="P29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R29" s="1" t="s">
@@ -2478,17 +2532,17 @@
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>22</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>1.58</v>
       </c>
-      <c r="E30" s="10">
-        <v>7.91</v>
+      <c r="E30" s="9">
+        <v>9.1999999999999993</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>13</v>
@@ -2496,7 +2550,7 @@
       <c r="G30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="7">
         <v>2011</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -2505,13 +2559,13 @@
       <c r="J30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M30" s="8" t="s">
+      <c r="K30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N30" s="1" t="s">
@@ -2520,10 +2574,10 @@
       <c r="O30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="P30" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="Q30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R30" s="1" t="s">
@@ -2540,16 +2594,16 @@
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="8">
-        <v>30</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="7">
+        <v>30</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <v>1.62</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <v>8.8699999999999992</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -2558,7 +2612,7 @@
       <c r="G31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="7">
         <v>2003</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -2567,13 +2621,13 @@
       <c r="J31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M31" s="8" t="s">
+      <c r="K31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N31" s="1" t="s">
@@ -2598,21 +2652,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>29</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>1.64</v>
       </c>
-      <c r="E32" s="10">
-        <v>6.27</v>
+      <c r="E32" s="9">
+        <v>9.1999999999999993</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>13</v>
@@ -2620,7 +2674,7 @@
       <c r="G32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="7">
         <v>2010</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -2629,13 +2683,13 @@
       <c r="J32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M32" s="8" t="s">
+      <c r="K32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N32" s="1" t="s">
@@ -2664,16 +2718,16 @@
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>19</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>1.62</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>8.56</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -2682,7 +2736,7 @@
       <c r="G33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="7">
         <v>2017</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -2691,13 +2745,13 @@
       <c r="J33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K33" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M33" s="8" t="s">
+      <c r="K33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N33" s="1" t="s">
@@ -2726,16 +2780,16 @@
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>27</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>1.64</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>7.32</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -2744,7 +2798,7 @@
       <c r="G34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="7">
         <v>2007</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -2753,13 +2807,13 @@
       <c r="J34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K34" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M34" s="8" t="s">
+      <c r="K34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N34" s="1" t="s">
@@ -2784,21 +2838,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>20</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>1.65</v>
       </c>
-      <c r="E35" s="10">
-        <v>9.77</v>
+      <c r="E35" s="9">
+        <v>7.6</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>22</v>
@@ -2806,7 +2860,7 @@
       <c r="G35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="7">
         <v>2015</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -2815,13 +2869,13 @@
       <c r="J35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M35" s="8" t="s">
+      <c r="K35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N35" s="1" t="s">
@@ -2830,7 +2884,7 @@
       <c r="O35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P35" s="4" t="s">
+      <c r="P35" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q35" s="1" t="s">
@@ -2850,16 +2904,16 @@
       <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>28</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>1.66</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <v>7.98</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -2868,7 +2922,7 @@
       <c r="G36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="7">
         <v>2001</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -2877,13 +2931,13 @@
       <c r="J36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M36" s="8" t="s">
+      <c r="K36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N36" s="1" t="s">
@@ -2912,16 +2966,16 @@
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>25</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <v>1.68</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="9">
         <v>8.57</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -2930,7 +2984,7 @@
       <c r="G37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="7">
         <v>2016</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -2939,13 +2993,13 @@
       <c r="J37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K37" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M37" s="8" t="s">
+      <c r="K37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N37" s="1" t="s">
@@ -2954,10 +3008,10 @@
       <c r="O37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P37" s="4" t="s">
+      <c r="P37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="Q37" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R37" s="1" t="s">
@@ -2974,16 +3028,16 @@
       <c r="A38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>18</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="9">
         <v>1.68</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="9">
         <v>7.31</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -2992,7 +3046,7 @@
       <c r="G38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="7">
         <v>2017</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -3001,13 +3055,13 @@
       <c r="J38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K38" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M38" s="8" t="s">
+      <c r="K38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N38" s="1" t="s">
@@ -3016,7 +3070,7 @@
       <c r="O38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P38" s="4" t="s">
+      <c r="P38" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q38" s="1" t="s">
@@ -3036,17 +3090,17 @@
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>25</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="9">
         <v>1.69</v>
       </c>
-      <c r="E39" s="10">
-        <v>9.11</v>
+      <c r="E39" s="9">
+        <v>7</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>13</v>
@@ -3054,7 +3108,7 @@
       <c r="G39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="7">
         <v>2013</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -3063,13 +3117,13 @@
       <c r="J39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M39" s="8" t="s">
+      <c r="K39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N39" s="1" t="s">
@@ -3078,7 +3132,7 @@
       <c r="O39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="P39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q39" s="1" t="s">
@@ -3098,17 +3152,17 @@
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>23</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <v>1.65</v>
       </c>
-      <c r="E40" s="10">
-        <v>6.16</v>
+      <c r="E40" s="9">
+        <v>9.1999999999999993</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>13</v>
@@ -3116,7 +3170,7 @@
       <c r="G40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="7">
         <v>2016</v>
       </c>
       <c r="I40" s="1" t="s">
@@ -3125,13 +3179,13 @@
       <c r="J40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M40" s="8" t="s">
+      <c r="K40" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N40" s="1" t="s">
@@ -3140,7 +3194,7 @@
       <c r="O40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P40" s="4" t="s">
+      <c r="P40" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q40" s="1" t="s">
@@ -3156,21 +3210,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>29</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <v>1.63</v>
       </c>
-      <c r="E41" s="10">
-        <v>7.89</v>
+      <c r="E41" s="9">
+        <v>9.1999999999999993</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>13</v>
@@ -3178,7 +3232,7 @@
       <c r="G41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="7">
         <v>2008</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -3187,13 +3241,13 @@
       <c r="J41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" s="8" t="s">
+      <c r="K41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N41" s="1" t="s">
@@ -3202,10 +3256,10 @@
       <c r="O41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P41" s="4" t="s">
+      <c r="P41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q41" s="4" t="s">
+      <c r="Q41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R41" s="1" t="s">
@@ -3222,17 +3276,17 @@
       <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>26</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <v>1.7</v>
       </c>
-      <c r="E42" s="10">
-        <v>9.76</v>
+      <c r="E42" s="9">
+        <v>7</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>22</v>
@@ -3240,7 +3294,7 @@
       <c r="G42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="7">
         <v>2012</v>
       </c>
       <c r="I42" s="1" t="s">
@@ -3249,13 +3303,13 @@
       <c r="J42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K42" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M42" s="8" t="s">
+      <c r="K42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N42" s="1" t="s">
@@ -3264,7 +3318,7 @@
       <c r="O42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P42" s="4" t="s">
+      <c r="P42" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q42" s="1" t="s">
@@ -3280,21 +3334,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>34</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>1.7</v>
       </c>
-      <c r="E43" s="10">
-        <v>9.85</v>
+      <c r="E43" s="9">
+        <v>7.6</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>13</v>
@@ -3302,7 +3356,7 @@
       <c r="G43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="7">
         <v>2006</v>
       </c>
       <c r="I43" s="1" t="s">
@@ -3311,13 +3365,13 @@
       <c r="J43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K43" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M43" s="8" t="s">
+      <c r="K43" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N43" s="1" t="s">
@@ -3326,7 +3380,7 @@
       <c r="O43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P43" s="4" t="s">
+      <c r="P43" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q43" s="1" t="s">
@@ -3346,16 +3400,16 @@
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="8">
-        <v>30</v>
-      </c>
-      <c r="C44" s="8" t="s">
+      <c r="B44" s="7">
+        <v>30</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <v>1.84</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="9">
         <v>6.42</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -3364,7 +3418,7 @@
       <c r="G44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="7">
         <v>1996</v>
       </c>
       <c r="I44" s="1" t="s">
@@ -3373,13 +3427,13 @@
       <c r="J44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K44" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M44" s="8" t="s">
+      <c r="K44" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N44" s="1" t="s">
@@ -3388,7 +3442,7 @@
       <c r="O44" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P44" s="4" t="s">
+      <c r="P44" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q44" s="1" t="s">
@@ -3408,16 +3462,16 @@
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>20</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <v>1.7</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="9">
         <v>7.38</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -3426,7 +3480,7 @@
       <c r="G45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="7">
         <v>2016</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -3435,13 +3489,13 @@
       <c r="J45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K45" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M45" s="8" t="s">
+      <c r="K45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="1" t="s">
@@ -3450,10 +3504,10 @@
       <c r="O45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P45" s="4" t="s">
+      <c r="P45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q45" s="4" t="s">
+      <c r="Q45" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R45" s="1" t="s">
@@ -3470,16 +3524,16 @@
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>27</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <v>1.72</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="9">
         <v>6.87</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -3488,7 +3542,7 @@
       <c r="G46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="7">
         <v>2006</v>
       </c>
       <c r="I46" s="1" t="s">
@@ -3497,13 +3551,13 @@
       <c r="J46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M46" s="8" t="s">
+      <c r="K46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N46" s="1" t="s">
@@ -3512,7 +3566,7 @@
       <c r="O46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P46" s="4" t="s">
+      <c r="P46" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q46" s="1" t="s">
@@ -3532,16 +3586,16 @@
       <c r="A47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>19</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="9">
         <v>1.72</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="9">
         <v>7.23</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -3550,7 +3604,7 @@
       <c r="G47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="7">
         <v>2015</v>
       </c>
       <c r="I47" s="1" t="s">
@@ -3559,13 +3613,13 @@
       <c r="J47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K47" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M47" s="8" t="s">
+      <c r="K47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="1" t="s">
@@ -3574,10 +3628,10 @@
       <c r="O47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P47" s="4" t="s">
+      <c r="P47" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q47" s="4" t="s">
+      <c r="Q47" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R47" s="1" t="s">
@@ -3594,16 +3648,16 @@
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>27</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="9">
         <v>1.73</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="9">
         <v>8.6</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -3612,7 +3666,7 @@
       <c r="G48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="7">
         <v>2006</v>
       </c>
       <c r="I48" s="1" t="s">
@@ -3621,13 +3675,13 @@
       <c r="J48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K48" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M48" s="8" t="s">
+      <c r="K48" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N48" s="1" t="s">
@@ -3639,7 +3693,7 @@
       <c r="P48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q48" s="4" t="s">
+      <c r="Q48" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R48" s="1" t="s">
@@ -3656,25 +3710,25 @@
       <c r="A49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>34</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="9">
         <v>1.74</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="9">
         <v>8</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="7">
         <v>2001</v>
       </c>
       <c r="I49" s="1" t="s">
@@ -3683,13 +3737,13 @@
       <c r="J49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K49" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M49" s="8" t="s">
+      <c r="K49" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N49" s="1" t="s">
@@ -3698,7 +3752,7 @@
       <c r="O49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P49" s="4" t="s">
+      <c r="P49" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q49" s="1" t="s">
@@ -3714,21 +3768,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>28</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="9">
         <v>1.74</v>
       </c>
-      <c r="E50" s="10">
-        <v>9.0399999999999991</v>
+      <c r="E50" s="9">
+        <v>7.6</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>22</v>
@@ -3736,7 +3790,7 @@
       <c r="G50" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="7">
         <v>2009</v>
       </c>
       <c r="I50" s="1" t="s">
@@ -3745,13 +3799,13 @@
       <c r="J50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K50" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M50" s="8" t="s">
+      <c r="K50" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N50" s="1" t="s">
@@ -3760,7 +3814,7 @@
       <c r="O50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P50" s="4" t="s">
+      <c r="P50" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q50" s="1" t="s">
@@ -3780,16 +3834,16 @@
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>28</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <v>1.74</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="9">
         <v>6.31</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -3798,7 +3852,7 @@
       <c r="G51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="7">
         <v>2012</v>
       </c>
       <c r="I51" s="1" t="s">
@@ -3807,13 +3861,13 @@
       <c r="J51" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M51" s="8" t="s">
+      <c r="K51" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M51" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N51" s="1" t="s">
@@ -3822,7 +3876,7 @@
       <c r="O51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P51" s="4" t="s">
+      <c r="P51" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q51" s="1" t="s">
@@ -3838,21 +3892,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="7">
         <v>27</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="9">
         <v>1.74</v>
       </c>
-      <c r="E52" s="10">
-        <v>9.83</v>
+      <c r="E52" s="9">
+        <v>7.6</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>13</v>
@@ -3860,7 +3914,7 @@
       <c r="G52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="7">
         <v>2010</v>
       </c>
       <c r="I52" s="1" t="s">
@@ -3869,13 +3923,13 @@
       <c r="J52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M52" s="8" t="s">
+      <c r="K52" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M52" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N52" s="1" t="s">
@@ -3884,7 +3938,7 @@
       <c r="O52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P52" s="4" t="s">
+      <c r="P52" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q52" s="1" t="s">
@@ -3904,16 +3958,16 @@
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>42</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="9">
         <v>1.65</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="9">
         <v>9.7200000000000006</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -3922,7 +3976,7 @@
       <c r="G53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="7">
         <v>1999</v>
       </c>
       <c r="I53" s="1" t="s">
@@ -3931,13 +3985,13 @@
       <c r="J53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K53" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53" s="8" t="s">
+      <c r="K53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N53" s="1" t="s">
@@ -3946,10 +4000,10 @@
       <c r="O53" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P53" s="4" t="s">
+      <c r="P53" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q53" s="4" t="s">
+      <c r="Q53" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R53" s="1" t="s">
@@ -3966,16 +4020,16 @@
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="8">
-        <v>21</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="B54" s="7">
+        <v>21</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="9">
         <v>1.74</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="9">
         <v>6.05</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -3984,7 +4038,7 @@
       <c r="G54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="7">
         <v>2013</v>
       </c>
       <c r="I54" s="1" t="s">
@@ -3993,13 +4047,13 @@
       <c r="J54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K54" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L54" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M54" s="8" t="s">
+      <c r="K54" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M54" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N54" s="1" t="s">
@@ -4028,16 +4082,16 @@
       <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>64</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="9">
         <v>1.75</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="9">
         <v>8.77</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -4046,7 +4100,7 @@
       <c r="G55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="7">
         <v>1996</v>
       </c>
       <c r="I55" s="1" t="s">
@@ -4055,13 +4109,13 @@
       <c r="J55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K55" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M55" s="8" t="s">
+      <c r="K55" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M55" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N55" s="1" t="s">
@@ -4070,7 +4124,7 @@
       <c r="O55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P55" s="4" t="s">
+      <c r="P55" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q55" s="1" t="s">
@@ -4090,16 +4144,16 @@
       <c r="A56" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>25</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="9">
         <v>1.75</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="9">
         <v>7.92</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -4108,7 +4162,7 @@
       <c r="G56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="7">
         <v>2008</v>
       </c>
       <c r="I56" s="1" t="s">
@@ -4117,13 +4171,13 @@
       <c r="J56" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K56" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L56" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M56" s="8" t="s">
+      <c r="K56" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M56" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N56" s="1" t="s">
@@ -4132,7 +4186,7 @@
       <c r="O56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P56" s="4" t="s">
+      <c r="P56" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q56" s="1" t="s">
@@ -4152,16 +4206,16 @@
       <c r="A57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>19</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="9">
         <v>1.75</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="9">
         <v>6.1</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -4170,7 +4224,7 @@
       <c r="G57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="7">
         <v>2012</v>
       </c>
       <c r="I57" s="1" t="s">
@@ -4179,13 +4233,13 @@
       <c r="J57" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K57" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M57" s="8" t="s">
+      <c r="K57" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N57" s="1" t="s">
@@ -4194,7 +4248,7 @@
       <c r="O57" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P57" s="4" t="s">
+      <c r="P57" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q57" s="1" t="s">
@@ -4214,16 +4268,16 @@
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>27</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="9">
         <v>1.75</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="9">
         <v>7.71</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -4232,7 +4286,7 @@
       <c r="G58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="7">
         <v>2008</v>
       </c>
       <c r="I58" s="1" t="s">
@@ -4241,13 +4295,13 @@
       <c r="J58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K58" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L58" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M58" s="8" t="s">
+      <c r="K58" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N58" s="1" t="s">
@@ -4256,7 +4310,7 @@
       <c r="O58" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P58" s="4" t="s">
+      <c r="P58" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q58" s="1" t="s">
@@ -4272,21 +4326,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>22</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="9">
         <v>1.76</v>
       </c>
-      <c r="E59" s="10">
-        <v>9.85</v>
+      <c r="E59" s="9">
+        <v>7.6</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>13</v>
@@ -4294,7 +4348,7 @@
       <c r="G59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H59" s="7">
         <v>2015</v>
       </c>
       <c r="I59" s="1" t="s">
@@ -4303,13 +4357,13 @@
       <c r="J59" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K59" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L59" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M59" s="8" t="s">
+      <c r="K59" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N59" s="1" t="s">
@@ -4318,7 +4372,7 @@
       <c r="O59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P59" s="4" t="s">
+      <c r="P59" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q59" s="1" t="s">
@@ -4338,16 +4392,16 @@
       <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>35</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="9">
         <v>1.76</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="9">
         <v>6.55</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -4356,7 +4410,7 @@
       <c r="G60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="7">
         <v>2002</v>
       </c>
       <c r="I60" s="1" t="s">
@@ -4365,13 +4419,13 @@
       <c r="J60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K60" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L60" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M60" s="8" t="s">
+      <c r="K60" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N60" s="1" t="s">
@@ -4383,7 +4437,7 @@
       <c r="P60" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q60" s="4" t="s">
+      <c r="Q60" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R60" s="1" t="s">
@@ -4400,16 +4454,16 @@
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>23</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="9">
         <v>1.76</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="9">
         <v>7.63</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -4418,7 +4472,7 @@
       <c r="G61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="7">
         <v>2012</v>
       </c>
       <c r="I61" s="1" t="s">
@@ -4427,13 +4481,13 @@
       <c r="J61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K61" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M61" s="8" t="s">
+      <c r="K61" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N61" s="1" t="s">
@@ -4442,7 +4496,7 @@
       <c r="O61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P61" s="4" t="s">
+      <c r="P61" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q61" s="1" t="s">
@@ -4462,16 +4516,16 @@
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>23</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="9">
         <v>1.81</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="9">
         <v>9.64</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -4480,7 +4534,7 @@
       <c r="G62" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="7">
         <v>2012</v>
       </c>
       <c r="I62" s="1" t="s">
@@ -4489,13 +4543,13 @@
       <c r="J62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K62" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L62" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M62" s="8" t="s">
+      <c r="K62" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N62" s="1" t="s">
@@ -4504,7 +4558,7 @@
       <c r="O62" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P62" s="4" t="s">
+      <c r="P62" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q62" s="1" t="s">
@@ -4524,16 +4578,16 @@
       <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>19</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="9">
         <v>1.76</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="9">
         <v>6.62</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -4542,7 +4596,7 @@
       <c r="G63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H63" s="7">
         <v>2017</v>
       </c>
       <c r="I63" s="1" t="s">
@@ -4551,13 +4605,13 @@
       <c r="J63" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K63" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L63" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M63" s="8" t="s">
+      <c r="K63" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M63" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N63" s="1" t="s">
@@ -4566,10 +4620,10 @@
       <c r="O63" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="P63" s="4" t="s">
+      <c r="P63" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q63" s="4" t="s">
+      <c r="Q63" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R63" s="1" t="s">
@@ -4586,16 +4640,16 @@
       <c r="A64" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>31</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="9">
         <v>1.76</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="9">
         <v>6.27</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -4604,7 +4658,7 @@
       <c r="G64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="7">
         <v>1998</v>
       </c>
       <c r="I64" s="1" t="s">
@@ -4613,13 +4667,13 @@
       <c r="J64" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K64" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L64" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M64" s="8" t="s">
+      <c r="K64" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M64" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N64" s="1" t="s">
@@ -4628,7 +4682,7 @@
       <c r="O64" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P64" s="4" t="s">
+      <c r="P64" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q64" s="1" t="s">
@@ -4644,21 +4698,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>19</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="9">
         <v>1.77</v>
       </c>
-      <c r="E65" s="10">
-        <v>9.92</v>
+      <c r="E65" s="9">
+        <v>7.6</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>22</v>
@@ -4666,7 +4720,7 @@
       <c r="G65" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="7">
         <v>2015</v>
       </c>
       <c r="I65" s="1" t="s">
@@ -4675,13 +4729,13 @@
       <c r="J65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K65" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M65" s="8" t="s">
+      <c r="K65" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M65" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N65" s="1" t="s">
@@ -4710,16 +4764,16 @@
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>18</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="9">
         <v>1.77</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="9">
         <v>8.0299999999999994</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -4728,7 +4782,7 @@
       <c r="G66" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="7">
         <v>2015</v>
       </c>
       <c r="I66" s="1" t="s">
@@ -4737,13 +4791,13 @@
       <c r="J66" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K66" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L66" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M66" s="8" t="s">
+      <c r="K66" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N66" s="1" t="s">
@@ -4752,10 +4806,10 @@
       <c r="O66" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P66" s="4" t="s">
+      <c r="P66" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q66" s="4" t="s">
+      <c r="Q66" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R66" s="1" t="s">
@@ -4772,16 +4826,16 @@
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>24</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="9">
         <v>1.78</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="12">
         <v>8.48</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -4790,7 +4844,7 @@
       <c r="G67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="7">
         <v>2012</v>
       </c>
       <c r="I67" s="1" t="s">
@@ -4799,13 +4853,13 @@
       <c r="J67" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K67" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M67" s="8" t="s">
+      <c r="K67" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M67" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N67" s="1" t="s">
@@ -4814,7 +4868,7 @@
       <c r="O67" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P67" s="4" t="s">
+      <c r="P67" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q67" s="1" t="s">
@@ -4834,16 +4888,16 @@
       <c r="A68" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>39</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="9">
         <v>1.71</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="9">
         <v>7.5</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -4852,7 +4906,7 @@
       <c r="G68" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H68" s="7">
         <v>1997</v>
       </c>
       <c r="I68" s="1" t="s">
@@ -4861,13 +4915,13 @@
       <c r="J68" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K68" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L68" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M68" s="8" t="s">
+      <c r="K68" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M68" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N68" s="1" t="s">
@@ -4876,7 +4930,7 @@
       <c r="O68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P68" s="4" t="s">
+      <c r="P68" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q68" s="1" t="s">
@@ -4892,21 +4946,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>42</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="9">
         <v>1.78</v>
       </c>
-      <c r="E69" s="10">
-        <v>9.36</v>
+      <c r="E69" s="9">
+        <v>7.6</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>13</v>
@@ -4914,7 +4968,7 @@
       <c r="G69" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H69" s="7">
         <v>2007</v>
       </c>
       <c r="I69" s="1" t="s">
@@ -4923,13 +4977,13 @@
       <c r="J69" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K69" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L69" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M69" s="8" t="s">
+      <c r="K69" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N69" s="1" t="s">
@@ -4938,10 +4992,10 @@
       <c r="O69" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P69" s="4" t="s">
+      <c r="P69" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q69" s="4" t="s">
+      <c r="Q69" s="3" t="s">
         <v>94</v>
       </c>
       <c r="R69" s="1" t="s">
@@ -4958,16 +5012,16 @@
       <c r="A70" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="8">
-        <v>30</v>
-      </c>
-      <c r="C70" s="8" t="s">
+      <c r="B70" s="7">
+        <v>30</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="9">
         <v>1.75</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="9">
         <v>9.74</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -4976,7 +5030,7 @@
       <c r="G70" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="7">
         <v>2002</v>
       </c>
       <c r="I70" s="1" t="s">
@@ -4985,13 +5039,13 @@
       <c r="J70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K70" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L70" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M70" s="8" t="s">
+      <c r="K70" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M70" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N70" s="1" t="s">
@@ -5000,7 +5054,7 @@
       <c r="O70" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P70" s="4" t="s">
+      <c r="P70" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q70" s="1" t="s">
@@ -5020,17 +5074,17 @@
       <c r="A71" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>20</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="9">
         <v>1.56</v>
       </c>
-      <c r="E71" s="10">
-        <v>6.97</v>
+      <c r="E71" s="9">
+        <v>7.5</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>22</v>
@@ -5038,7 +5092,7 @@
       <c r="G71" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H71" s="7">
         <v>2017</v>
       </c>
       <c r="I71" s="1" t="s">
@@ -5047,13 +5101,13 @@
       <c r="J71" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K71" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L71" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M71" s="8" t="s">
+      <c r="K71" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M71" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N71" s="1" t="s">
@@ -5062,7 +5116,7 @@
       <c r="O71" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P71" s="4" t="s">
+      <c r="P71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q71" s="1" t="s">
@@ -5078,21 +5132,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="7">
         <v>23</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="9">
         <v>1.78</v>
       </c>
-      <c r="E72" s="10">
-        <v>9.61</v>
+      <c r="E72" s="9">
+        <v>7.6</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>13</v>
@@ -5100,7 +5154,7 @@
       <c r="G72" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72" s="7">
         <v>2012</v>
       </c>
       <c r="I72" s="1" t="s">
@@ -5109,13 +5163,13 @@
       <c r="J72" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K72" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L72" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M72" s="8" t="s">
+      <c r="K72" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N72" s="1" t="s">
@@ -5124,10 +5178,10 @@
       <c r="O72" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P72" s="4" t="s">
+      <c r="P72" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Q72" s="4" t="s">
+      <c r="Q72" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R72" s="1" t="s">
@@ -5140,21 +5194,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>31</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="9">
         <v>1.78</v>
       </c>
-      <c r="E73" s="10">
-        <v>9.9499999999999993</v>
+      <c r="E73" s="9">
+        <v>7.6</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>13</v>
@@ -5162,7 +5216,7 @@
       <c r="G73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H73" s="7">
         <v>2015</v>
       </c>
       <c r="I73" s="1" t="s">
@@ -5171,13 +5225,13 @@
       <c r="J73" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K73" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L73" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M73" s="8" t="s">
+      <c r="K73" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M73" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N73" s="1" t="s">
@@ -5186,7 +5240,7 @@
       <c r="O73" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P73" s="4" t="s">
+      <c r="P73" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q73" s="1" t="s">
@@ -5206,16 +5260,16 @@
       <c r="A74" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>25</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="9">
         <v>1.78</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="9">
         <v>8.16</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -5224,7 +5278,7 @@
       <c r="G74" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H74" s="7">
         <v>2006</v>
       </c>
       <c r="I74" s="1" t="s">
@@ -5233,13 +5287,13 @@
       <c r="J74" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K74" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L74" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M74" s="8" t="s">
+      <c r="K74" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M74" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N74" s="1" t="s">
@@ -5248,10 +5302,10 @@
       <c r="O74" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P74" s="4" t="s">
+      <c r="P74" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q74" s="4" t="s">
+      <c r="Q74" s="3" t="s">
         <v>55</v>
       </c>
       <c r="R74" s="1" t="s">
@@ -5268,16 +5322,16 @@
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="8">
-        <v>30</v>
-      </c>
-      <c r="C75" s="8" t="s">
+      <c r="B75" s="7">
+        <v>30</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="9">
         <v>1.79</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="9">
         <v>6.41</v>
       </c>
       <c r="F75" s="1" t="s">
@@ -5286,7 +5340,7 @@
       <c r="G75" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H75" s="7">
         <v>2004</v>
       </c>
       <c r="I75" s="1" t="s">
@@ -5295,13 +5349,13 @@
       <c r="J75" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K75" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L75" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M75" s="8" t="s">
+      <c r="K75" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M75" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N75" s="1" t="s">
@@ -5313,7 +5367,7 @@
       <c r="P75" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q75" s="4" t="s">
+      <c r="Q75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="R75" s="1" t="s">
@@ -5330,16 +5384,16 @@
       <c r="A76" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="7">
         <v>27</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="9">
         <v>1.65</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="9">
         <v>8.0399999999999991</v>
       </c>
       <c r="F76" s="1" t="s">
@@ -5348,7 +5402,7 @@
       <c r="G76" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H76" s="7">
         <v>2013</v>
       </c>
       <c r="I76" s="1" t="s">
@@ -5357,13 +5411,13 @@
       <c r="J76" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K76" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L76" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M76" s="8" t="s">
+      <c r="K76" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M76" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N76" s="1" t="s">
@@ -5392,16 +5446,16 @@
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="7">
         <v>33</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="9">
         <v>1.79</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="9">
         <v>7.9</v>
       </c>
       <c r="F77" s="1" t="s">
@@ -5410,7 +5464,7 @@
       <c r="G77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77" s="7">
         <v>2004</v>
       </c>
       <c r="I77" s="1" t="s">
@@ -5419,13 +5473,13 @@
       <c r="J77" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K77" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L77" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M77" s="8" t="s">
+      <c r="K77" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M77" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N77" s="1" t="s">
@@ -5434,10 +5488,10 @@
       <c r="O77" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P77" s="4" t="s">
+      <c r="P77" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q77" s="4" t="s">
+      <c r="Q77" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R77" s="1" t="s">
@@ -5454,16 +5508,16 @@
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B78" s="8">
-        <v>21</v>
-      </c>
-      <c r="C78" s="8" t="s">
+      <c r="B78" s="7">
+        <v>21</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="9">
         <v>1.79</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="9">
         <v>8.6199999999999992</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -5472,7 +5526,7 @@
       <c r="G78" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H78" s="8">
+      <c r="H78" s="7">
         <v>2012</v>
       </c>
       <c r="I78" s="1" t="s">
@@ -5481,13 +5535,13 @@
       <c r="J78" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K78" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L78" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M78" s="8" t="s">
+      <c r="K78" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M78" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N78" s="1" t="s">
@@ -5496,7 +5550,7 @@
       <c r="O78" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P78" s="4" t="s">
+      <c r="P78" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q78" s="1" t="s">
@@ -5516,16 +5570,16 @@
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="8">
-        <v>21</v>
-      </c>
-      <c r="C79" s="8" t="s">
+      <c r="B79" s="7">
+        <v>21</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="9">
         <v>1.82</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="9">
         <v>7.19</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -5534,7 +5588,7 @@
       <c r="G79" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H79" s="8">
+      <c r="H79" s="7">
         <v>2017</v>
       </c>
       <c r="I79" s="1" t="s">
@@ -5543,13 +5597,13 @@
       <c r="J79" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K79" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L79" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M79" s="8" t="s">
+      <c r="K79" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M79" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N79" s="1" t="s">
@@ -5558,10 +5612,10 @@
       <c r="O79" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P79" s="4" t="s">
+      <c r="P79" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q79" s="4" t="s">
+      <c r="Q79" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R79" s="1" t="s">
@@ -5578,25 +5632,25 @@
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="7">
         <v>25</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="9">
         <v>1.83</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E80" s="9">
         <v>6.47</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H80" s="8">
+      <c r="H80" s="7">
         <v>2011</v>
       </c>
       <c r="I80" s="1" t="s">
@@ -5605,13 +5659,13 @@
       <c r="J80" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K80" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L80" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M80" s="8" t="s">
+      <c r="K80" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M80" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N80" s="1" t="s">
@@ -5623,7 +5677,7 @@
       <c r="P80" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q80" s="4" t="s">
+      <c r="Q80" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R80" s="1" t="s">
@@ -5640,16 +5694,16 @@
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="7">
         <v>28</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="9">
         <v>1.83</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="9">
         <v>8.57</v>
       </c>
       <c r="F81" s="1" t="s">
@@ -5658,7 +5712,7 @@
       <c r="G81" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H81" s="8">
+      <c r="H81" s="7">
         <v>2014</v>
       </c>
       <c r="I81" s="1" t="s">
@@ -5667,13 +5721,13 @@
       <c r="J81" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K81" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L81" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M81" s="8" t="s">
+      <c r="K81" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M81" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N81" s="1" t="s">
@@ -5682,10 +5736,10 @@
       <c r="O81" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P81" s="4" t="s">
+      <c r="P81" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q81" s="4" t="s">
+      <c r="Q81" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R81" s="1" t="s">
@@ -5702,25 +5756,25 @@
       <c r="A82" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="7">
         <v>23</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="9">
         <v>1.83</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E82" s="9">
         <v>8</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G82" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H82" s="8">
+      <c r="H82" s="7">
         <v>2011</v>
       </c>
       <c r="I82" s="1" t="s">
@@ -5729,13 +5783,13 @@
       <c r="J82" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K82" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L82" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M82" s="8" t="s">
+      <c r="K82" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M82" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N82" s="1" t="s">
@@ -5744,10 +5798,10 @@
       <c r="O82" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P82" s="4" t="s">
+      <c r="P82" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q82" s="4" t="s">
+      <c r="Q82" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R82" s="1" t="s">
@@ -5760,21 +5814,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="7">
         <v>25</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="9">
         <v>1.84</v>
       </c>
-      <c r="E83" s="10">
-        <v>9.69</v>
+      <c r="E83" s="9">
+        <v>7.6</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>13</v>
@@ -5782,7 +5836,7 @@
       <c r="G83" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H83" s="8">
+      <c r="H83" s="7">
         <v>2014</v>
       </c>
       <c r="I83" s="1" t="s">
@@ -5791,13 +5845,13 @@
       <c r="J83" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K83" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L83" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M83" s="8" t="s">
+      <c r="K83" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M83" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N83" s="1" t="s">
@@ -5806,7 +5860,7 @@
       <c r="O83" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P83" s="4" t="s">
+      <c r="P83" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q83" s="1" t="s">
@@ -5826,25 +5880,25 @@
       <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="7">
         <v>19</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="9">
         <v>1.64</v>
       </c>
-      <c r="E84" s="10">
-        <v>7.06</v>
+      <c r="E84" s="9">
+        <v>7.5</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G84" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H84" s="8">
+      <c r="H84" s="7">
         <v>2012</v>
       </c>
       <c r="I84" s="1" t="s">
@@ -5853,13 +5907,13 @@
       <c r="J84" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K84" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L84" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M84" s="8" t="s">
+      <c r="K84" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M84" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N84" s="1" t="s">
@@ -5868,7 +5922,7 @@
       <c r="O84" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P84" s="4" t="s">
+      <c r="P84" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q84" s="1" t="s">
@@ -5888,16 +5942,16 @@
       <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="7">
         <v>24</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="9">
         <v>1.85</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E85" s="9">
         <v>7.91</v>
       </c>
       <c r="F85" s="1" t="s">
@@ -5906,7 +5960,7 @@
       <c r="G85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H85" s="8">
+      <c r="H85" s="7">
         <v>2010</v>
       </c>
       <c r="I85" s="1" t="s">
@@ -5915,13 +5969,13 @@
       <c r="J85" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K85" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L85" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M85" s="8" t="s">
+      <c r="K85" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M85" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N85" s="1" t="s">
@@ -5930,7 +5984,7 @@
       <c r="O85" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P85" s="4" t="s">
+      <c r="P85" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q85" s="1" t="s">
@@ -5950,16 +6004,16 @@
       <c r="A86" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="7">
         <v>36</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="9">
         <v>1.86</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E86" s="9">
         <v>6.84</v>
       </c>
       <c r="F86" s="1" t="s">
@@ -5968,7 +6022,7 @@
       <c r="G86" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H86" s="8">
+      <c r="H86" s="7">
         <v>2005</v>
       </c>
       <c r="I86" s="1" t="s">
@@ -5977,13 +6031,13 @@
       <c r="J86" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K86" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L86" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M86" s="8" t="s">
+      <c r="K86" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M86" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N86" s="1" t="s">
@@ -5992,7 +6046,7 @@
       <c r="O86" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P86" s="4" t="s">
+      <c r="P86" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q86" s="1" t="s">
@@ -6012,16 +6066,16 @@
       <c r="A87" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="7">
         <v>23</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87" s="9">
         <v>1.86</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E87" s="9">
         <v>6.75</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -6030,7 +6084,7 @@
       <c r="G87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H87" s="8">
+      <c r="H87" s="7">
         <v>2013</v>
       </c>
       <c r="I87" s="1" t="s">
@@ -6039,13 +6093,13 @@
       <c r="J87" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K87" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L87" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M87" s="8" t="s">
+      <c r="K87" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M87" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N87" s="1" t="s">
@@ -6054,7 +6108,7 @@
       <c r="O87" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P87" s="4" t="s">
+      <c r="P87" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q87" s="1" t="s">
@@ -6074,16 +6128,16 @@
       <c r="A88" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="7">
         <v>23</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="9">
         <v>1.87</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E88" s="9">
         <v>8.86</v>
       </c>
       <c r="F88" s="1" t="s">
@@ -6092,7 +6146,7 @@
       <c r="G88" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H88" s="8">
+      <c r="H88" s="7">
         <v>2014</v>
       </c>
       <c r="I88" s="1" t="s">
@@ -6101,13 +6155,13 @@
       <c r="J88" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K88" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L88" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M88" s="8" t="s">
+      <c r="K88" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M88" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N88" s="1" t="s">
@@ -6116,7 +6170,7 @@
       <c r="O88" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P88" s="4" t="s">
+      <c r="P88" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q88" s="1" t="s">
@@ -6136,16 +6190,16 @@
       <c r="A89" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="7">
         <v>41</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D89" s="9">
         <v>1.88</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E89" s="9">
         <v>7.75</v>
       </c>
       <c r="F89" s="1" t="s">
@@ -6154,7 +6208,7 @@
       <c r="G89" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H89" s="8">
+      <c r="H89" s="7">
         <v>1997</v>
       </c>
       <c r="I89" s="1" t="s">
@@ -6163,13 +6217,13 @@
       <c r="J89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K89" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L89" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M89" s="8" t="s">
+      <c r="K89" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N89" s="1" t="s">
@@ -6178,10 +6232,10 @@
       <c r="O89" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P89" s="4" t="s">
+      <c r="P89" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Q89" s="4" t="s">
+      <c r="Q89" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R89" s="1" t="s">
@@ -6198,16 +6252,16 @@
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="7">
         <v>27</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="9">
         <v>1.88</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E90" s="9">
         <v>8.0399999999999991</v>
       </c>
       <c r="F90" s="1" t="s">
@@ -6216,7 +6270,7 @@
       <c r="G90" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H90" s="8">
+      <c r="H90" s="7">
         <v>2006</v>
       </c>
       <c r="I90" s="1" t="s">
@@ -6225,13 +6279,13 @@
       <c r="J90" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K90" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L90" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M90" s="8" t="s">
+      <c r="K90" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L90" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M90" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N90" s="1" t="s">
@@ -6260,16 +6314,16 @@
       <c r="A91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="7">
         <v>34</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="9">
         <v>1.7</v>
       </c>
-      <c r="E91" s="10">
+      <c r="E91" s="9">
         <v>9.89</v>
       </c>
       <c r="F91" s="1" t="s">
@@ -6278,7 +6332,7 @@
       <c r="G91" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H91" s="8">
+      <c r="H91" s="7">
         <v>1997</v>
       </c>
       <c r="I91" s="1" t="s">
@@ -6287,13 +6341,13 @@
       <c r="J91" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K91" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L91" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M91" s="8" t="s">
+      <c r="K91" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M91" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N91" s="1" t="s">
@@ -6302,7 +6356,7 @@
       <c r="O91" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P91" s="4" t="s">
+      <c r="P91" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q91" s="1" t="s">
@@ -6322,16 +6376,16 @@
       <c r="A92" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92" s="7">
         <v>19</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="9">
         <v>1.89</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E92" s="9">
         <v>6.26</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -6340,7 +6394,7 @@
       <c r="G92" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H92" s="8">
+      <c r="H92" s="7">
         <v>2012</v>
       </c>
       <c r="I92" s="1" t="s">
@@ -6349,13 +6403,13 @@
       <c r="J92" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K92" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L92" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M92" s="8" t="s">
+      <c r="K92" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M92" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N92" s="1" t="s">
@@ -6364,10 +6418,10 @@
       <c r="O92" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P92" s="4" t="s">
+      <c r="P92" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q92" s="4" t="s">
+      <c r="Q92" s="3" t="s">
         <v>94</v>
       </c>
       <c r="R92" s="1" t="s">
@@ -6384,16 +6438,16 @@
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="8">
+      <c r="B93" s="7">
         <v>25</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="9">
         <v>1.89</v>
       </c>
-      <c r="E93" s="10">
+      <c r="E93" s="9">
         <v>6.77</v>
       </c>
       <c r="F93" s="1" t="s">
@@ -6402,7 +6456,7 @@
       <c r="G93" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H93" s="8">
+      <c r="H93" s="7">
         <v>2007</v>
       </c>
       <c r="I93" s="1" t="s">
@@ -6411,13 +6465,13 @@
       <c r="J93" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K93" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L93" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M93" s="8" t="s">
+      <c r="K93" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M93" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N93" s="1" t="s">
@@ -6426,7 +6480,7 @@
       <c r="O93" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P93" s="4" t="s">
+      <c r="P93" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q93" s="1" t="s">
@@ -6442,20 +6496,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94" s="7">
         <v>20</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="9">
         <v>1.9</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E94" s="9">
         <v>9.8800000000000008</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -6464,7 +6518,7 @@
       <c r="G94" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H94" s="8">
+      <c r="H94" s="7">
         <v>2014</v>
       </c>
       <c r="I94" s="1" t="s">
@@ -6473,13 +6527,13 @@
       <c r="J94" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K94" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L94" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M94" s="8" t="s">
+      <c r="K94" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M94" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N94" s="1" t="s">
@@ -6488,10 +6542,10 @@
       <c r="O94" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P94" s="4" t="s">
+      <c r="P94" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q94" s="4" t="s">
+      <c r="Q94" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R94" s="1" t="s">
@@ -6508,16 +6562,16 @@
       <c r="A95" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95" s="7">
         <v>22</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D95" s="9">
         <v>1.78</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E95" s="9">
         <v>8.51</v>
       </c>
       <c r="F95" s="1" t="s">
@@ -6526,7 +6580,7 @@
       <c r="G95" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H95" s="8">
+      <c r="H95" s="7">
         <v>2014</v>
       </c>
       <c r="I95" s="1" t="s">
@@ -6535,13 +6589,13 @@
       <c r="J95" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K95" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L95" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M95" s="8" t="s">
+      <c r="K95" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M95" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N95" s="1" t="s">
@@ -6550,7 +6604,7 @@
       <c r="O95" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P95" s="4" t="s">
+      <c r="P95" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q95" s="1" t="s">
@@ -6570,16 +6624,16 @@
       <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="7">
         <v>24</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D96" s="9">
         <v>1.91</v>
       </c>
-      <c r="E96" s="10">
+      <c r="E96" s="9">
         <v>7.42</v>
       </c>
       <c r="F96" s="1" t="s">
@@ -6588,7 +6642,7 @@
       <c r="G96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H96" s="8">
+      <c r="H96" s="7">
         <v>2016</v>
       </c>
       <c r="I96" s="1" t="s">
@@ -6597,13 +6651,13 @@
       <c r="J96" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K96" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L96" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M96" s="8" t="s">
+      <c r="K96" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M96" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N96" s="1" t="s">
@@ -6612,7 +6666,7 @@
       <c r="O96" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P96" s="4" t="s">
+      <c r="P96" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q96" s="1" t="s">
@@ -6632,16 +6686,16 @@
       <c r="A97" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="7">
         <v>20</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="9">
         <v>1.91</v>
       </c>
-      <c r="E97" s="10">
+      <c r="E97" s="9">
         <v>7.12</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -6650,7 +6704,7 @@
       <c r="G97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H97" s="8">
+      <c r="H97" s="7">
         <v>2016</v>
       </c>
       <c r="I97" s="1" t="s">
@@ -6659,13 +6713,13 @@
       <c r="J97" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K97" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L97" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M97" s="8" t="s">
+      <c r="K97" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M97" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N97" s="1" t="s">
@@ -6677,7 +6731,7 @@
       <c r="P97" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q97" s="4" t="s">
+      <c r="Q97" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R97" s="1" t="s">
@@ -6694,16 +6748,16 @@
       <c r="A98" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B98" s="8">
-        <v>21</v>
-      </c>
-      <c r="C98" s="8" t="s">
+      <c r="B98" s="7">
+        <v>21</v>
+      </c>
+      <c r="C98" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D98" s="10">
+      <c r="D98" s="9">
         <v>1.91</v>
       </c>
-      <c r="E98" s="10">
+      <c r="E98" s="9">
         <v>8.44</v>
       </c>
       <c r="F98" s="1" t="s">
@@ -6712,7 +6766,7 @@
       <c r="G98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H98" s="8">
+      <c r="H98" s="7">
         <v>2014</v>
       </c>
       <c r="I98" s="1" t="s">
@@ -6721,13 +6775,13 @@
       <c r="J98" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K98" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L98" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M98" s="8" t="s">
+      <c r="K98" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M98" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N98" s="1" t="s">
@@ -6736,7 +6790,7 @@
       <c r="O98" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P98" s="4" t="s">
+      <c r="P98" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q98" s="1" t="s">
@@ -6756,16 +6810,16 @@
       <c r="A99" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99" s="7">
         <v>24</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="9">
         <v>1.92</v>
       </c>
-      <c r="E99" s="10">
+      <c r="E99" s="9">
         <v>8.77</v>
       </c>
       <c r="F99" s="1" t="s">
@@ -6774,7 +6828,7 @@
       <c r="G99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H99" s="8">
+      <c r="H99" s="7">
         <v>2006</v>
       </c>
       <c r="I99" s="1" t="s">
@@ -6783,13 +6837,13 @@
       <c r="J99" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K99" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L99" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M99" s="8" t="s">
+      <c r="K99" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L99" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M99" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N99" s="1" t="s">
@@ -6798,7 +6852,7 @@
       <c r="O99" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P99" s="4" t="s">
+      <c r="P99" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q99" s="1" t="s">
@@ -6818,16 +6872,16 @@
       <c r="A100" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="8">
+      <c r="B100" s="7">
         <v>33</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D100" s="9">
         <v>1.93</v>
       </c>
-      <c r="E100" s="10">
+      <c r="E100" s="9">
         <v>6.89</v>
       </c>
       <c r="F100" s="1" t="s">
@@ -6836,7 +6890,7 @@
       <c r="G100" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H100" s="8">
+      <c r="H100" s="7">
         <v>2003</v>
       </c>
       <c r="I100" s="1" t="s">
@@ -6845,13 +6899,13 @@
       <c r="J100" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K100" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L100" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M100" s="8" t="s">
+      <c r="K100" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M100" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N100" s="1" t="s">
@@ -6860,7 +6914,7 @@
       <c r="O100" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P100" s="4" t="s">
+      <c r="P100" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q100" s="1" t="s">
@@ -6880,16 +6934,16 @@
       <c r="A101" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="7">
         <v>33</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="9">
         <v>1.95</v>
       </c>
-      <c r="E101" s="10">
+      <c r="E101" s="9">
         <v>7.57</v>
       </c>
       <c r="F101" s="1" t="s">
@@ -6898,7 +6952,7 @@
       <c r="G101" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H101" s="8">
+      <c r="H101" s="7">
         <v>2004</v>
       </c>
       <c r="I101" s="1" t="s">
@@ -6907,13 +6961,13 @@
       <c r="J101" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K101" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L101" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M101" s="8" t="s">
+      <c r="K101" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M101" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N101" s="1" t="s">
@@ -6922,7 +6976,7 @@
       <c r="O101" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P101" s="4" t="s">
+      <c r="P101" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q101" s="1" t="s">
@@ -6942,16 +6996,16 @@
       <c r="A102" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B102" s="8">
-        <v>21</v>
-      </c>
-      <c r="C102" s="8" t="s">
+      <c r="B102" s="7">
+        <v>21</v>
+      </c>
+      <c r="C102" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="10">
+      <c r="D102" s="9">
         <v>1.54</v>
       </c>
-      <c r="E102" s="10">
+      <c r="E102" s="9">
         <v>7.12</v>
       </c>
       <c r="F102" s="1" t="s">
@@ -6960,7 +7014,7 @@
       <c r="G102" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H102" s="8">
+      <c r="H102" s="7">
         <v>2016</v>
       </c>
       <c r="I102" s="1" t="s">
@@ -6969,13 +7023,13 @@
       <c r="J102" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K102" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L102" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M102" s="8" t="s">
+      <c r="K102" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N102" s="1" t="s">
@@ -6984,7 +7038,7 @@
       <c r="O102" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P102" s="4" t="s">
+      <c r="P102" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Q102" s="1" t="s">
@@ -7004,16 +7058,16 @@
       <c r="A103" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B103" s="8">
+      <c r="B103" s="7">
         <v>18</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D103" s="9">
         <v>1.96</v>
       </c>
-      <c r="E103" s="10">
+      <c r="E103" s="9">
         <v>8.06</v>
       </c>
       <c r="F103" s="1" t="s">
@@ -7022,7 +7076,7 @@
       <c r="G103" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H103" s="8">
+      <c r="H103" s="7">
         <v>2016</v>
       </c>
       <c r="I103" s="1" t="s">
@@ -7031,13 +7085,13 @@
       <c r="J103" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K103" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L103" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M103" s="8" t="s">
+      <c r="K103" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L103" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M103" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N103" s="1" t="s">
@@ -7049,7 +7103,7 @@
       <c r="P103" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q103" s="4" t="s">
+      <c r="Q103" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R103" s="1" t="s">
@@ -7066,16 +7120,16 @@
       <c r="A104" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B104" s="8">
+      <c r="B104" s="7">
         <v>27</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D104" s="10">
+      <c r="D104" s="9">
         <v>1.96</v>
       </c>
-      <c r="E104" s="10">
+      <c r="E104" s="9">
         <v>8.98</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -7084,7 +7138,7 @@
       <c r="G104" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H104" s="8">
+      <c r="H104" s="7">
         <v>2015</v>
       </c>
       <c r="I104" s="1" t="s">
@@ -7093,13 +7147,13 @@
       <c r="J104" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K104" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L104" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M104" s="8" t="s">
+      <c r="K104" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L104" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M104" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N104" s="1" t="s">
@@ -7124,20 +7178,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B105" s="8">
+      <c r="B105" s="7">
         <v>29</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="10">
+      <c r="D105" s="9">
         <v>1.96</v>
       </c>
-      <c r="E105" s="10">
+      <c r="E105" s="9">
         <v>9.8699999999999992</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -7146,7 +7200,7 @@
       <c r="G105" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H105" s="8">
+      <c r="H105" s="7">
         <v>2011</v>
       </c>
       <c r="I105" s="1" t="s">
@@ -7155,13 +7209,13 @@
       <c r="J105" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K105" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L105" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M105" s="8" t="s">
+      <c r="K105" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L105" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M105" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N105" s="1" t="s">
@@ -7170,7 +7224,7 @@
       <c r="O105" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P105" s="4" t="s">
+      <c r="P105" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q105" s="1" t="s">
@@ -7190,16 +7244,16 @@
       <c r="A106" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B106" s="8">
+      <c r="B106" s="7">
         <v>27</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D106" s="10">
+      <c r="D106" s="9">
         <v>1.98</v>
       </c>
-      <c r="E106" s="10">
+      <c r="E106" s="9">
         <v>7.19</v>
       </c>
       <c r="F106" s="1" t="s">
@@ -7208,7 +7262,7 @@
       <c r="G106" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H106" s="8">
+      <c r="H106" s="7">
         <v>2007</v>
       </c>
       <c r="I106" s="1" t="s">
@@ -7217,13 +7271,13 @@
       <c r="J106" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K106" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L106" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M106" s="8" t="s">
+      <c r="K106" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L106" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M106" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N106" s="1" t="s">
@@ -7232,7 +7286,7 @@
       <c r="O106" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P106" s="4" t="s">
+      <c r="P106" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q106" s="1" t="s">
@@ -7249,40 +7303,40 @@
       </c>
     </row>
     <row r="107" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P107" s="4"/>
+      <c r="P107" s="3"/>
     </row>
     <row r="108" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P108" s="4"/>
+      <c r="P108" s="3"/>
     </row>
     <row r="109" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P109" s="4"/>
+      <c r="P109" s="3"/>
     </row>
     <row r="110" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P110" s="4"/>
+      <c r="P110" s="3"/>
     </row>
     <row r="111" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P111" s="4"/>
+      <c r="P111" s="3"/>
     </row>
     <row r="112" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P112" s="4"/>
+      <c r="P112" s="3"/>
     </row>
     <row r="113" spans="16:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P113" s="4"/>
+      <c r="P113" s="3"/>
     </row>
     <row r="114" spans="16:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P114" s="4"/>
+      <c r="P114" s="3"/>
     </row>
     <row r="115" spans="16:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P115" s="4"/>
+      <c r="P115" s="3"/>
     </row>
     <row r="116" spans="16:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P116" s="4"/>
+      <c r="P116" s="3"/>
     </row>
     <row r="117" spans="16:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P117" s="4"/>
+      <c r="P117" s="3"/>
     </row>
     <row r="118" spans="16:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P118" s="4"/>
+      <c r="P118" s="3"/>
     </row>
     <row r="119" spans="16:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="120" spans="16:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8170,14 +8224,25 @@
   <autoFilter ref="A1:T106" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Femenino"/>
+        <filter val="Masculino"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="3">
+    <filterColumn colId="4">
       <filters>
-        <filter val="1,91"/>
-        <filter val="1,94"/>
-        <filter val="1,95"/>
+        <filter val="9,04"/>
+        <filter val="9,34"/>
+        <filter val="9,36"/>
+        <filter val="9,40"/>
+        <filter val="9,61"/>
+        <filter val="9,63"/>
+        <filter val="9,69"/>
+        <filter val="9,77"/>
+        <filter val="9,83"/>
+        <filter val="9,85"/>
+        <filter val="9,87"/>
+        <filter val="9,88"/>
+        <filter val="9,92"/>
+        <filter val="9,95"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8191,143 +8256,424 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C1:H1000"/>
+  <dimension ref="C1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="10.7109375" customWidth="1"/>
+    <col min="1" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="13" width="5.42578125" style="8" customWidth="1"/>
+    <col min="14" max="27" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="8">
+        <f>MIN('Base de Datos Original'!$B$2:$B$106)</f>
+        <v>18</v>
+      </c>
+      <c r="F6" s="8">
+        <f>MAX('Base de Datos Original'!$B$2:$B$106)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="8">
+        <v>105</v>
+      </c>
+      <c r="H9" s="8">
+        <v>18</v>
+      </c>
+      <c r="I9" s="8">
+        <f>(H10+H9)/2</f>
+        <v>21</v>
+      </c>
+      <c r="J9" s="8">
+        <f>COUNTIF('Base de Datos Original'!$B$2:$B$106,"&lt;24")</f>
+        <v>38</v>
+      </c>
+      <c r="K9" s="8">
+        <f>J9</f>
+        <v>38</v>
+      </c>
+      <c r="L9" s="11">
+        <f>J9/$E$9</f>
+        <v>0.3619047619047619</v>
+      </c>
+      <c r="M9" s="11">
+        <f>K9/$E$9</f>
+        <v>0.3619047619047619</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="8">
+        <f>F6-E6</f>
+        <v>46</v>
+      </c>
+      <c r="H10" s="8">
+        <f>H9+$E$12</f>
+        <v>24</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" ref="I10:I16" si="0">(H11+H10)/2</f>
+        <v>27</v>
+      </c>
+      <c r="J10" s="8">
+        <f>COUNTIFS('Base de Datos Original'!$B$2:$B$106,"&gt;=24",'Base de Datos Original'!$B$2:$B$106,"&lt;30")</f>
+        <v>39</v>
+      </c>
+      <c r="K10" s="8">
+        <f>J10+K9</f>
+        <v>77</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" ref="L10:L17" si="1">J10/$E$9</f>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" ref="M10:M17" si="2">K10/$E$9</f>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="8">
+        <f>ROUND(1+3.3*LOG(E9,10),0)</f>
+        <v>8</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" ref="H11:H17" si="3">H10+$E$12</f>
+        <v>30</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="J11" s="8">
+        <f>COUNTIFS('Base de Datos Original'!$B$2:$B$106,"&gt;=30",'Base de Datos Original'!$B$2:$B$106,"&lt;36")</f>
+        <v>18</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" ref="K11:K17" si="4">J11+K10</f>
+        <v>95</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="1"/>
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="2"/>
+        <v>0.90476190476190477</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="8">
+        <f>ROUND(E10/E11,0)</f>
+        <v>6</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="J12" s="8">
+        <f>COUNTIFS('Base de Datos Original'!$B$2:$B$106,"&gt;=36",'Base de Datos Original'!$B$2:$B$106,"&lt;42")</f>
+        <v>7</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97142857142857142</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="8">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J13" s="8">
+        <f>COUNTIFS('Base de Datos Original'!$B$2:$B$106,"&gt;=42",'Base de Datos Original'!$B$2:$B$106,"&lt;48")</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="1"/>
+        <v>1.9047619047619049E-2</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99047619047619051</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="8">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="J14" s="8">
+        <f>COUNTIFS('Base de Datos Original'!$B$2:$B$106,"&gt;=48",'Base de Datos Original'!$B$2:$B$106,"&lt;54")</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99047619047619051</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="3:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="8">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="J15" s="8">
+        <f>COUNTIFS('Base de Datos Original'!$B$2:$B$106,"&gt;=54",'Base de Datos Original'!$B$2:$B$106,"&lt;60")</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99047619047619051</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="8">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="J16" s="8">
+        <f>COUNTIFS('Base de Datos Original'!$B$2:$B$106,"&gt;=60",'Base de Datos Original'!$B$2:$B$106,"&lt;66")</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" si="1"/>
+        <v>9.5238095238095247E-3</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="8">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="I17" s="8">
+        <f>(72+H17)/2</f>
+        <v>69</v>
+      </c>
+      <c r="J17" s="8">
+        <f>COUNTIFS('Base de Datos Original'!$B$2:$B$106,"&gt;=66")</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
